--- a/biology/Biologie cellulaire et moléculaire/Valine/Valine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Valine/Valine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La valine (abréviations IUPAC-IUBMB : Val et V) est un acide α-aminé dont l'énantiomère L est l'un des 22 acides aminés protéinogènes, et l'un des 9 acides aminés essentiels pour l'homme. Elle est caractérisée par un groupe apolaire isopropyle. Son nom provient de la valériane[5]. Elle est encodée sur les ARN messagers par les codons GUU, GUC, GUA et GUG.
+La valine (abréviations IUPAC-IUBMB : Val et V) est un acide α-aminé dont l'énantiomère L est l'un des 22 acides aminés protéinogènes, et l'un des 9 acides aminés essentiels pour l'homme. Elle est caractérisée par un groupe apolaire isopropyle. Son nom provient de la valériane. Elle est encodée sur les ARN messagers par les codons GUU, GUC, GUA et GUG.
 Sa chaîne latérale est de nature aliphatique ramifiée et symétrique.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Biosynthèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La valine est biosynthétisée dans les plantes en plusieurs étapes à partir de l'acide pyruvique. Est ensuite formé un intermédiaire, l'α-cétoisovalérate qui subit une amination réductive avec le glutamate.Cette biosynthèse implique les enzymes[6] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La valine est biosynthétisée dans les plantes en plusieurs étapes à partir de l'acide pyruvique. Est ensuite formé un intermédiaire, l'α-cétoisovalérate qui subit une amination réductive avec le glutamate.Cette biosynthèse implique les enzymes :
 Acétolactate synthase ;
 Acide acétohydroxy isoméroreductase ;
 Dihydroxyacide déshydratase ;
@@ -549,7 +563,9 @@
           <t>Maladies du métabolisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La dégradation de la valine est perturbée dans les maladies métaboliques suivantes 
 Acidémie méthylmalonique
@@ -583,9 +599,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La société Metabolic Explorer a annoncé avoir développé un procédé de production de la L-valine par voie fermentaire en décembre 2021[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La société Metabolic Explorer a annoncé avoir développé un procédé de production de la L-valine par voie fermentaire en décembre 2021.
 </t>
         </is>
       </c>
